--- a/spliced/struggle/2023-04-06_17-43-36/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-43-36/data_selected.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.0029840469360351</v>
+        <v>0.0050287246704101</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1837852597236633</v>
+        <v>-0.5146583914756775</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2917509078979492</v>
+        <v>0.2250737845897674</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8929322957992554</v>
+        <v>-1.044426798820496</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.803107976913452</v>
+        <v>-3.01202392578125</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2594650089740753</v>
+        <v>0.518471896648407</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0050287246704101</v>
+        <v>-0.0246791839599609</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5146583914756775</v>
+        <v>0.9255874156951904</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2250737845897674</v>
+        <v>-0.4234113097190857</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.044426798820496</v>
+        <v>-0.3640756905078888</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.01202392578125</v>
+        <v>-1.799456238746643</v>
       </c>
       <c r="H3" t="n">
-        <v>0.518471896648407</v>
+        <v>0.3358231782913208</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.0246791839599609</v>
+        <v>-0.3062458038330078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9255874156951904</v>
+        <v>0.5210974216461182</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4234113097190857</v>
+        <v>-0.6826221942901611</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3640756905078888</v>
+        <v>-0.2800817191600799</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.799456238746643</v>
+        <v>-1.379181027412415</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3358231782913208</v>
+        <v>0.1039998084306716</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.3062458038330078</v>
+        <v>-0.0336570739746093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5210974216461182</v>
+        <v>-0.3159241676330566</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6826221942901611</v>
+        <v>-2.89306116104126</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2800817191600799</v>
+        <v>0.2446515262126922</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.379181027412415</v>
+        <v>1.389260292053223</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1039998084306716</v>
+        <v>-0.0532979927957057</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.0336570739746093</v>
+        <v>2.157181739807129</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3159241676330566</v>
+        <v>0.2950803935527801</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.89306116104126</v>
+        <v>-5.19840145111084</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2446515262126922</v>
+        <v>1.946674823760986</v>
       </c>
       <c r="G6" t="n">
-        <v>1.389260292053223</v>
+        <v>6.569244861602783</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0532979927957057</v>
+        <v>-1.187216639518738</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.157181739807129</v>
+        <v>0.2004642486572265</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2950803935527801</v>
+        <v>-0.8322474360466003</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.19840145111084</v>
+        <v>-0.1898527145385742</v>
       </c>
       <c r="F7" t="n">
-        <v>1.946674823760986</v>
+        <v>1.043357849121094</v>
       </c>
       <c r="G7" t="n">
-        <v>6.569244861602783</v>
+        <v>2.923295736312866</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.187216639518738</v>
+        <v>0.2732094824314117</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2004642486572265</v>
+        <v>-2.500746965408325</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8322474360466003</v>
+        <v>0.4417282938957214</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1898527145385742</v>
+        <v>0.8889427185058594</v>
       </c>
       <c r="F8" t="n">
-        <v>1.043357849121094</v>
+        <v>1.18660569190979</v>
       </c>
       <c r="G8" t="n">
-        <v>2.923295736312866</v>
+        <v>1.866804242134094</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2732094824314117</v>
+        <v>0.970054030418396</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.500746965408325</v>
+        <v>-3.396578788757324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4417282938957214</v>
+        <v>1.112873911857605</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8889427185058594</v>
+        <v>1.645373344421387</v>
       </c>
       <c r="F9" t="n">
-        <v>1.18660569190979</v>
+        <v>0.1301143020391464</v>
       </c>
       <c r="G9" t="n">
-        <v>1.866804242134094</v>
+        <v>2.222785949707031</v>
       </c>
       <c r="H9" t="n">
-        <v>0.970054030418396</v>
+        <v>-0.0280998013913631</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.396578788757324</v>
+        <v>-4.896120071411133</v>
       </c>
       <c r="D10" t="n">
-        <v>1.112873911857605</v>
+        <v>3.986298561096192</v>
       </c>
       <c r="E10" t="n">
-        <v>1.645373344421387</v>
+        <v>8.319293975830078</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1301143020391464</v>
+        <v>-0.0589484944939613</v>
       </c>
       <c r="G10" t="n">
-        <v>2.222785949707031</v>
+        <v>-0.4569272100925445</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0280998013913631</v>
+        <v>-0.4526511430740356</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.896120071411133</v>
+        <v>-3.247961044311523</v>
       </c>
       <c r="D11" t="n">
-        <v>3.986298561096192</v>
+        <v>1.173810482025146</v>
       </c>
       <c r="E11" t="n">
-        <v>8.319293975830078</v>
+        <v>-5.774084091186523</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0589484944939613</v>
+        <v>1.018770456314087</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4569272100925445</v>
+        <v>-5.163338661193848</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4526511430740356</v>
+        <v>-2.075872898101806</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-3.247961044311523</v>
+        <v>-0.8262515068054199</v>
       </c>
       <c r="D12" t="n">
-        <v>1.173810482025146</v>
+        <v>-2.918009757995605</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.774084091186523</v>
+        <v>2.994272947311401</v>
       </c>
       <c r="F12" t="n">
-        <v>1.018770456314087</v>
+        <v>-1.822669148445129</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.163338661193848</v>
+        <v>-3.153133630752563</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.075872898101806</v>
+        <v>0.7982481718063354</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.8262515068054199</v>
+        <v>-2.458094835281372</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.918009757995605</v>
+        <v>-0.3888258635997772</v>
       </c>
       <c r="E13" t="n">
-        <v>2.994272947311401</v>
+        <v>-0.6840519905090332</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.822669148445129</v>
+        <v>-0.737772524356842</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.153133630752563</v>
+        <v>-2.180025339126587</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7982481718063354</v>
+        <v>-0.1867720484733581</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.458094835281372</v>
+        <v>-1.984735012054444</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3888258635997772</v>
+        <v>2.097556114196777</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6840519905090332</v>
+        <v>-3.859614849090576</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.737772524356842</v>
+        <v>-0.2316706478595733</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.180025339126587</v>
+        <v>-2.678491353988647</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1867720484733581</v>
+        <v>-0.6579018831253052</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.984735012054444</v>
+        <v>-10.1377477645874</v>
       </c>
       <c r="D15" t="n">
-        <v>2.097556114196777</v>
+        <v>4.743382453918457</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.859614849090576</v>
+        <v>-1.631471395492554</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2316706478595733</v>
+        <v>-0.2446515262126922</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.678491353988647</v>
+        <v>1.025031924247742</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.6579018831253052</v>
+        <v>0.4431827366352081</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-10.1377477645874</v>
+        <v>3.672384262084961</v>
       </c>
       <c r="D16" t="n">
-        <v>4.743382453918457</v>
+        <v>-0.4976945519447326</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.631471395492554</v>
+        <v>9.970148086547852</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2446515262126922</v>
+        <v>0.9764680862426758</v>
       </c>
       <c r="G16" t="n">
-        <v>1.025031924247742</v>
+        <v>5.428759574890137</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4431827366352081</v>
+        <v>0.0936150997877121</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.672384262084961</v>
+        <v>-3.353246688842773</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4976945519447326</v>
+        <v>0.9116206765174866</v>
       </c>
       <c r="E17" t="n">
-        <v>9.970148086547852</v>
+        <v>-0.0151057243347167</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9764680862426758</v>
+        <v>1.343140006065369</v>
       </c>
       <c r="G17" t="n">
-        <v>5.428759574890137</v>
+        <v>3.488956928253174</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0936150997877121</v>
+        <v>0.9002626538276672</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-3.353246688842773</v>
+        <v>-1.351092576980591</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9116206765174866</v>
+        <v>1.431697487831116</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0151057243347167</v>
+        <v>2.426383018493652</v>
       </c>
       <c r="F18" t="n">
-        <v>1.343140006065369</v>
+        <v>-0.2557998299598694</v>
       </c>
       <c r="G18" t="n">
-        <v>3.488956928253174</v>
+        <v>1.629635810852051</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9002626538276672</v>
+        <v>1.214094638824463</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.351092576980591</v>
+        <v>-4.564205169677734</v>
       </c>
       <c r="D19" t="n">
-        <v>1.431697487831116</v>
+        <v>2.659675121307373</v>
       </c>
       <c r="E19" t="n">
-        <v>2.426383018493652</v>
+        <v>9.756929397583008</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2557998299598694</v>
+        <v>-0.2167044430971145</v>
       </c>
       <c r="G19" t="n">
-        <v>1.629635810852051</v>
+        <v>1.373072385787964</v>
       </c>
       <c r="H19" t="n">
-        <v>1.214094638824463</v>
+        <v>-0.3060434758663177</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-4.564205169677734</v>
+        <v>-0.1535825729370117</v>
       </c>
       <c r="D20" t="n">
-        <v>2.659675121307373</v>
+        <v>-2.909769535064697</v>
       </c>
       <c r="E20" t="n">
-        <v>9.756929397583008</v>
+        <v>-4.346651077270508</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2167044430971145</v>
+        <v>0.1476766765117645</v>
       </c>
       <c r="G20" t="n">
-        <v>1.373072385787964</v>
+        <v>-0.5042692422866821</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.3060434758663177</v>
+        <v>-0.403781920671463</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.1535825729370117</v>
+        <v>-3.01861572265625</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.909769535064697</v>
+        <v>-0.8810358047485352</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.346651077270508</v>
+        <v>-0.5351743698120117</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1476766765117645</v>
+        <v>0.0123700210824608</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.5042692422866821</v>
+        <v>-2.318233489990234</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.403781920671463</v>
+        <v>-0.6989825367927551</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/struggle/2023-04-06_17-43-36/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-43-36/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0050287246704101</v>
+        <v>-0.3062458038330078</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5146583914756775</v>
+        <v>0.5210974216461182</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2250737845897674</v>
+        <v>-0.6826221942901611</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.044426798820496</v>
+        <v>-0.2800817191600799</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.01202392578125</v>
+        <v>-1.379181027412415</v>
       </c>
       <c r="H2" t="n">
-        <v>0.518471896648407</v>
+        <v>0.1039998084306716</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.0246791839599609</v>
+        <v>-0.0336570739746093</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9255874156951904</v>
+        <v>-0.3159241676330566</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4234113097190857</v>
+        <v>-2.89306116104126</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3640756905078888</v>
+        <v>0.2446515262126922</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.799456238746643</v>
+        <v>1.389260292053223</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3358231782913208</v>
+        <v>-0.0532979927957057</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.3062458038330078</v>
+        <v>2.157181739807129</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5210974216461182</v>
+        <v>0.2950803935527801</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6826221942901611</v>
+        <v>-5.19840145111084</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2800817191600799</v>
+        <v>1.946674823760986</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.379181027412415</v>
+        <v>6.569244861602783</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1039998084306716</v>
+        <v>-1.187216639518738</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.0336570739746093</v>
+        <v>0.2004642486572265</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3159241676330566</v>
+        <v>-0.8322474360466003</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.89306116104126</v>
+        <v>-0.1898527145385742</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2446515262126922</v>
+        <v>1.043357849121094</v>
       </c>
       <c r="G5" t="n">
-        <v>1.389260292053223</v>
+        <v>2.923295736312866</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0532979927957057</v>
+        <v>0.2732094824314117</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.157181739807129</v>
+        <v>-2.500746965408325</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2950803935527801</v>
+        <v>0.4417282938957214</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.19840145111084</v>
+        <v>0.8889427185058594</v>
       </c>
       <c r="F6" t="n">
-        <v>1.946674823760986</v>
+        <v>1.18660569190979</v>
       </c>
       <c r="G6" t="n">
-        <v>6.569244861602783</v>
+        <v>1.866804242134094</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.187216639518738</v>
+        <v>0.970054030418396</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2004642486572265</v>
+        <v>-3.396578788757324</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8322474360466003</v>
+        <v>1.112873911857605</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1898527145385742</v>
+        <v>1.645373344421387</v>
       </c>
       <c r="F7" t="n">
-        <v>1.043357849121094</v>
+        <v>0.1301143020391464</v>
       </c>
       <c r="G7" t="n">
-        <v>2.923295736312866</v>
+        <v>2.222785949707031</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2732094824314117</v>
+        <v>-0.0280998013913631</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.500746965408325</v>
+        <v>-4.896120071411133</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4417282938957214</v>
+        <v>3.986298561096192</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8889427185058594</v>
+        <v>8.319293975830078</v>
       </c>
       <c r="F8" t="n">
-        <v>1.18660569190979</v>
+        <v>-0.0589484944939613</v>
       </c>
       <c r="G8" t="n">
-        <v>1.866804242134094</v>
+        <v>-0.4569272100925445</v>
       </c>
       <c r="H8" t="n">
-        <v>0.970054030418396</v>
+        <v>-0.4526511430740356</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-3.396578788757324</v>
+        <v>-3.247961044311523</v>
       </c>
       <c r="D9" t="n">
-        <v>1.112873911857605</v>
+        <v>1.173810482025146</v>
       </c>
       <c r="E9" t="n">
-        <v>1.645373344421387</v>
+        <v>-5.774084091186523</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1301143020391464</v>
+        <v>1.018770456314087</v>
       </c>
       <c r="G9" t="n">
-        <v>2.222785949707031</v>
+        <v>-5.163338661193848</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0280998013913631</v>
+        <v>-2.075872898101806</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.896120071411133</v>
+        <v>-0.8262515068054199</v>
       </c>
       <c r="D10" t="n">
-        <v>3.986298561096192</v>
+        <v>-2.918009757995605</v>
       </c>
       <c r="E10" t="n">
-        <v>8.319293975830078</v>
+        <v>2.994272947311401</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0589484944939613</v>
+        <v>-1.822669148445129</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4569272100925445</v>
+        <v>-3.153133630752563</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.4526511430740356</v>
+        <v>0.7982481718063354</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3.247961044311523</v>
+        <v>-2.458094835281372</v>
       </c>
       <c r="D11" t="n">
-        <v>1.173810482025146</v>
+        <v>-0.3888258635997772</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.774084091186523</v>
+        <v>-0.6840519905090332</v>
       </c>
       <c r="F11" t="n">
-        <v>1.018770456314087</v>
+        <v>-0.737772524356842</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.163338661193848</v>
+        <v>-2.180025339126587</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.075872898101806</v>
+        <v>-0.1867720484733581</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.8262515068054199</v>
+        <v>-1.984735012054444</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.918009757995605</v>
+        <v>2.097556114196777</v>
       </c>
       <c r="E12" t="n">
-        <v>2.994272947311401</v>
+        <v>-3.859614849090576</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.822669148445129</v>
+        <v>-0.2316706478595733</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.153133630752563</v>
+        <v>-2.678491353988647</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7982481718063354</v>
+        <v>-0.6579018831253052</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.458094835281372</v>
+        <v>-10.1377477645874</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3888258635997772</v>
+        <v>4.743382453918457</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6840519905090332</v>
+        <v>-1.631471395492554</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.737772524356842</v>
+        <v>-0.2446515262126922</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.180025339126587</v>
+        <v>1.025031924247742</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1867720484733581</v>
+        <v>0.4431827366352081</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.984735012054444</v>
+        <v>3.672384262084961</v>
       </c>
       <c r="D14" t="n">
-        <v>2.097556114196777</v>
+        <v>-0.4976945519447326</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.859614849090576</v>
+        <v>9.970148086547852</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2316706478595733</v>
+        <v>0.9764680862426758</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.678491353988647</v>
+        <v>5.428759574890137</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.6579018831253052</v>
+        <v>0.0936150997877121</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-10.1377477645874</v>
+        <v>-3.353246688842773</v>
       </c>
       <c r="D15" t="n">
-        <v>4.743382453918457</v>
+        <v>0.9116206765174866</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.631471395492554</v>
+        <v>-0.0151057243347167</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2446515262126922</v>
+        <v>1.343140006065369</v>
       </c>
       <c r="G15" t="n">
-        <v>1.025031924247742</v>
+        <v>3.488956928253174</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4431827366352081</v>
+        <v>0.9002626538276672</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.672384262084961</v>
+        <v>-1.351092576980591</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4976945519447326</v>
+        <v>1.431697487831116</v>
       </c>
       <c r="E16" t="n">
-        <v>9.970148086547852</v>
+        <v>2.426383018493652</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9764680862426758</v>
+        <v>-0.2557998299598694</v>
       </c>
       <c r="G16" t="n">
-        <v>5.428759574890137</v>
+        <v>1.629635810852051</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0936150997877121</v>
+        <v>1.214094638824463</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-3.353246688842773</v>
+        <v>-4.564205169677734</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9116206765174866</v>
+        <v>2.659675121307373</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0151057243347167</v>
+        <v>9.756929397583008</v>
       </c>
       <c r="F17" t="n">
-        <v>1.343140006065369</v>
+        <v>-0.2167044430971145</v>
       </c>
       <c r="G17" t="n">
-        <v>3.488956928253174</v>
+        <v>1.373072385787964</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9002626538276672</v>
+        <v>-0.3060434758663177</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.351092576980591</v>
+        <v>-0.1535825729370117</v>
       </c>
       <c r="D18" t="n">
-        <v>1.431697487831116</v>
+        <v>-2.909769535064697</v>
       </c>
       <c r="E18" t="n">
-        <v>2.426383018493652</v>
+        <v>-4.346651077270508</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2557998299598694</v>
+        <v>0.1476766765117645</v>
       </c>
       <c r="G18" t="n">
-        <v>1.629635810852051</v>
+        <v>-0.5042692422866821</v>
       </c>
       <c r="H18" t="n">
-        <v>1.214094638824463</v>
+        <v>-0.403781920671463</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-4.564205169677734</v>
+        <v>-3.01861572265625</v>
       </c>
       <c r="D19" t="n">
-        <v>2.659675121307373</v>
+        <v>-0.8810358047485352</v>
       </c>
       <c r="E19" t="n">
-        <v>9.756929397583008</v>
+        <v>-0.5351743698120117</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2167044430971145</v>
+        <v>0.0123700210824608</v>
       </c>
       <c r="G19" t="n">
-        <v>1.373072385787964</v>
+        <v>-2.318233489990234</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3060434758663177</v>
+        <v>-0.6989825367927551</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.1535825729370117</v>
+        <v>-3.367526054382324</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.909769535064697</v>
+        <v>0.915987193584442</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.346651077270508</v>
+        <v>-1.626443386077881</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1476766765117645</v>
+        <v>-1.0144944190979</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5042692422866821</v>
+        <v>-1.167210817337036</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.403781920671463</v>
+        <v>0.6551529765129089</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-3.01861572265625</v>
+        <v>-1.118759155273438</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.8810358047485352</v>
+        <v>2.792432069778442</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.5351743698120117</v>
+        <v>-4.963344097137451</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0123700210824608</v>
+        <v>-0.3874412775039673</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.318233489990234</v>
+        <v>-0.7050912380218506</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.6989825367927551</v>
+        <v>0.0914770737290382</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.557756900787354</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.5582034587860107</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.2619988918304443</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.1458440721035003</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.3762930035591125</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.0704022198915481</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.715949058532715</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.576748490333557</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.096891403198242</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2157881408929824</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3240640163421631</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0951422601938247</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.8243503570556641</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5943599939346313</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.927432060241699</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0403171069920063</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1484402567148208</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.0852157026529312</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.2981023788452148</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.024843096733093</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8517363667488098</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1014036312699318</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3179553747177124</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0390953756868839</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4371089935302734</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3337190449237823</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.154114544391632</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.052381694316864</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1099557429552078</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0681114718317985</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5641984939575195</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.3292053341865539</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.326197862625122</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0522289797663688</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.4196644127368927</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2273945808410644</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.131052017211914</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5107872486114502</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0540084838867187</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0937678143382072</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.1565342247486114</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0675006061792373</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1777238845825195</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4102384448051452</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1352127194404602</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0591012127697467</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0331394411623477</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0291688162833452</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2971744537353515</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0503720641136169</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.09675005078315729</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0047342055477201</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0655152946710586</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.0163406450301408</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1711950302124023</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.0577961653470993</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0454300940036773</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.00534507073462</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0612392425537109</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0022907445672899</v>
       </c>
     </row>
   </sheetData>
